--- a/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>AFCG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,154 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E8" s="3">
         <v>13000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="3">
         <v>2800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E10" s="3">
         <v>10200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3800</v>
       </c>
       <c r="H10" s="3">
         <v>3800</v>
       </c>
       <c r="I10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E18" s="3">
         <v>8500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,45 +1041,49 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1066,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,37 +1135,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E23" s="3">
         <v>7100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1135,8 +1181,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>10200</v>
       </c>
       <c r="E26" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F26" s="3">
         <v>7900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>10200</v>
       </c>
       <c r="E27" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F27" s="3">
         <v>7900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>10200</v>
       </c>
       <c r="E33" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F33" s="3">
         <v>7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>10200</v>
       </c>
       <c r="E35" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F35" s="3">
         <v>7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,37 +1618,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E41" s="3">
         <v>109200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>70000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>124600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>126800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,37 +1680,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,95 +1744,107 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>91600</v>
       </c>
       <c r="E46" s="3">
+        <v>112200</v>
+      </c>
+      <c r="F46" s="3">
         <v>71700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>125200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>128900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>32100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>336800</v>
+        <v>362500</v>
       </c>
       <c r="E47" s="3">
+        <v>352700</v>
+      </c>
+      <c r="F47" s="3">
         <v>232200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>153300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>92600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>83700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>50700</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1764,8 +1872,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,8 +1968,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2032,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>454100</v>
+      </c>
+      <c r="E54" s="3">
         <v>464800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>303900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>278500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>221500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>94000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>82700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,37 +2094,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,74 +2156,83 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17800</v>
+        <v>16900</v>
       </c>
       <c r="E59" s="3">
+        <v>92700</v>
+      </c>
+      <c r="F59" s="3">
         <v>29000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>18500</v>
       </c>
       <c r="E60" s="3">
+        <v>94200</v>
+      </c>
+      <c r="F60" s="3">
         <v>29500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>96700</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>96600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2109,37 +2252,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2380,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117600</v>
+      </c>
+      <c r="E66" s="3">
         <v>191800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2554,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2682,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>336500</v>
+      </c>
+      <c r="E76" s="3">
         <v>273100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>274400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>268500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>216300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>91600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>80900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>10200</v>
       </c>
       <c r="E81" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F81" s="3">
         <v>7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E89" s="3">
         <v>1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,8 +3069,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-127000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-59800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,26 +3211,27 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-8200</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-7100</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-5100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-2200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3337,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E100" s="3">
         <v>164300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>47500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>121700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>31900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-45600</v>
       </c>
       <c r="E102" s="3">
+        <v>39300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-54600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>117200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>31200</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,167 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E8" s="3">
         <v>17400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E9" s="3">
         <v>3800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E10" s="3">
         <v>13600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3800</v>
       </c>
       <c r="I10" s="3">
         <v>3800</v>
       </c>
       <c r="J10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E17" s="3">
         <v>6400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E18" s="3">
         <v>11000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,52 +1075,56 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E21" s="3">
         <v>10200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,54 +1178,60 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E23" s="3">
         <v>10200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1202,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E26" s="3">
         <v>10200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E27" s="3">
         <v>10200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E33" s="3">
         <v>10200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E35" s="3">
         <v>10200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,40 +1705,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E41" s="3">
         <v>63600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>109200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>70000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>124600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>126800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,40 +1773,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27300</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,8 +1843,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1756,95 +1855,104 @@
         <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>91600</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>112200</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>71700</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>125200</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>128900</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>32100</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>362500</v>
+        <v>413100</v>
       </c>
       <c r="E47" s="3">
-        <v>352700</v>
+        <v>389800</v>
       </c>
       <c r="F47" s="3">
-        <v>232200</v>
+        <v>354700</v>
       </c>
       <c r="G47" s="3">
-        <v>153300</v>
+        <v>233500</v>
       </c>
       <c r="H47" s="3">
-        <v>92600</v>
+        <v>153700</v>
       </c>
       <c r="I47" s="3">
-        <v>83700</v>
+        <v>93600</v>
       </c>
       <c r="J47" s="3">
+        <v>84300</v>
+      </c>
+      <c r="K47" s="3">
         <v>50700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1875,8 +1983,11 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>459300</v>
+      </c>
+      <c r="E54" s="3">
         <v>454100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>464800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>303900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>278500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>221500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>94000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>82700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,40 +2225,44 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2159,84 +2293,93 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16900</v>
+        <v>22700</v>
       </c>
       <c r="E59" s="3">
-        <v>92700</v>
+        <v>18700</v>
       </c>
       <c r="F59" s="3">
-        <v>29000</v>
+        <v>93000</v>
       </c>
       <c r="G59" s="3">
-        <v>8600</v>
+        <v>28300</v>
       </c>
       <c r="H59" s="3">
-        <v>4800</v>
+        <v>8200</v>
       </c>
       <c r="I59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18500</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>94200</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>29500</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>10100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E61" s="3">
         <v>96700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>96600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2255,40 +2398,46 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1000</v>
+        <v>600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>121100</v>
+      </c>
+      <c r="E66" s="3">
         <v>117600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>191800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>338200</v>
+      </c>
+      <c r="E76" s="3">
         <v>336500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>273100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>274400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>268500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>216300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>91600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>80900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E81" s="3">
         <v>10200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,8 +3030,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2864,8 +3063,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E89" s="3">
         <v>4700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,8 +3290,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3102,8 +3323,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-127000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-59800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,29 +3445,30 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-7100</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,40 +3583,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>164300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>47500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>121700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>31900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-45600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>39300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-54600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>117200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>31200</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>AFCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E8" s="3">
         <v>19900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="3">
         <v>4200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E10" s="3">
         <v>15700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>10200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3800</v>
       </c>
       <c r="J10" s="3">
         <v>3800</v>
       </c>
       <c r="K10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E17" s="3">
         <v>5800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E18" s="3">
         <v>14100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,58 +1109,62 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E21" s="3">
         <v>11500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,43 +1221,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E23" s="3">
         <v>11500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1225,16 +1271,16 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E26" s="3">
         <v>11400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E27" s="3">
         <v>11400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E33" s="3">
         <v>11400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E35" s="3">
         <v>11400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,43 +1792,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E41" s="3">
         <v>45600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>63600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>109200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>70000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>124600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>126800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>31200</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1805,14 +1898,17 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,8 +1942,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1858,31 +1957,34 @@
         <v>600</v>
       </c>
       <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1908,51 +2010,57 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>32100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>434400</v>
+      </c>
+      <c r="E47" s="3">
         <v>413100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>389800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>354700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>233500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>153700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>93600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>84300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>50700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>471300</v>
+      </c>
+      <c r="E54" s="3">
         <v>459300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>454100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>464800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>303900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>278500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>221500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>94000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>82700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,43 +2356,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,43 +2430,49 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E59" s="3">
         <v>22700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>93000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2358,31 +2498,34 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E61" s="3">
         <v>96800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>96700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>96600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2401,43 +2544,49 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>123900</v>
+      </c>
+      <c r="E66" s="3">
         <v>121100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>191800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>347400</v>
+      </c>
+      <c r="E76" s="3">
         <v>338200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>336500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>273100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>274400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>268500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>216300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>91600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>80900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E81" s="3">
         <v>11400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E89" s="3">
         <v>10600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-127000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-59800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,32 +3679,33 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-10900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-7100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-20200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>164300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>47500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>121700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>31900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-45600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>39300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-54600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>117200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31200</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>AFCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,192 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E8" s="3">
         <v>18100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E9" s="3">
         <v>3800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E10" s="3">
         <v>14300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>13600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3800</v>
       </c>
       <c r="K10" s="3">
         <v>3800</v>
       </c>
       <c r="L10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
         <v>5300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E18" s="3">
         <v>12800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,64 +1142,68 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E21" s="3">
         <v>11600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,66 +1263,72 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E23" s="3">
         <v>11600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1300,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>11500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>11500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1632,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>11500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>11500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1878,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E41" s="3">
         <v>36300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>63600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>109200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>70000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>124600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>126800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>31200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1958,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1901,14 +1993,17 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,13 +2040,16 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
@@ -1960,31 +2058,34 @@
         <v>600</v>
       </c>
       <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2013,54 +2114,60 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>32100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>378300</v>
+      </c>
+      <c r="E47" s="3">
         <v>434400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>413100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>389800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>354700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>233500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>153700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>93600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>84300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2097,8 +2204,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2327,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2368,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2409,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>519200</v>
+      </c>
+      <c r="E54" s="3">
         <v>471300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>459300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>454100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>464800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>303900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>278500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>221500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>94000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>82700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,46 +2486,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,46 +2566,52 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>81400</v>
+      </c>
+      <c r="E59" s="3">
         <v>25100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>93000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2501,34 +2640,37 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E61" s="3">
         <v>97000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>96800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>96700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>96600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2547,46 +2689,52 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2853,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>180100</v>
+      </c>
+      <c r="E66" s="3">
         <v>123900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>121100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>191800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3075,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3239,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>339100</v>
+      </c>
+      <c r="E76" s="3">
         <v>347400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>338200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>336500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>273100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>274400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>268500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>216300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>91600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>80900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>11500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3466,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E89" s="3">
         <v>12200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3550,8 +3770,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-127000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-54800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,35 +3912,36 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-11100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-10900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-7100</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-5100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -3718,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4074,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>164300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>47500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>121700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>31900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-45600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>39300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-54600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>117200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>AFCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,205 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E8" s="3">
         <v>19700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E9" s="3">
         <v>3900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E10" s="3">
         <v>15800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>13600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6600</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3800</v>
       </c>
       <c r="L10" s="3">
         <v>3800</v>
       </c>
       <c r="M10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,31 +965,34 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-2000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E18" s="3">
         <v>13800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,70 +1176,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E21" s="3">
         <v>3600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,72 +1306,78 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
-      </c>
-      <c r="E24" s="3">
-        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>11500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>11500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1702,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>10200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>11500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>11500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,49 +1965,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E41" s="3">
         <v>140400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>63600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>109200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>70000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>124600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>126800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,8 +2051,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1996,14 +2089,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,16 +2139,19 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
@@ -2061,31 +2160,34 @@
         <v>600</v>
       </c>
       <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2117,57 +2219,63 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>32100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>366800</v>
+      </c>
+      <c r="E47" s="3">
         <v>378300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>434400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>413100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>389800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>354700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>233500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>153700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>93600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>84300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2207,8 +2315,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,49 +2535,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>447800</v>
+      </c>
+      <c r="E54" s="3">
         <v>519200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>471300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>459300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>454100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>464800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>303900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>278500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>221500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>94000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>82700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,49 +2617,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2569,49 +2703,55 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E59" s="3">
         <v>81400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>93000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2643,37 +2783,40 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E61" s="3">
         <v>97100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>97000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>96800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>96700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>96600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2692,49 +2835,55 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,49 +3011,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E66" s="3">
         <v>180100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>123900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>121100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>191800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,49 +3249,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,49 +3425,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>337900</v>
+      </c>
+      <c r="E76" s="3">
         <v>339100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>347400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>338200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>336500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>273100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>274400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>268500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>216300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>91600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>80900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>11500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E89" s="3">
         <v>3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E94" s="3">
         <v>52200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-127000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-54800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3922,29 +4156,29 @@
         <v>-11400</v>
       </c>
       <c r="E96" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-11100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-10900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-7100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="E100" s="3">
         <v>48000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-20200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>164300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>47500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>121700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>31900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="E102" s="3">
         <v>104100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-45600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>39300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-54600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>117200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31200</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>AFCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,218 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E8" s="3">
         <v>16800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>18100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E9" s="3">
         <v>3700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E10" s="3">
         <v>13100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3800</v>
       </c>
       <c r="M10" s="3">
         <v>3800</v>
       </c>
       <c r="N10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,17 +985,20 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1014,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E18" s="3">
         <v>12400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>8500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,76 +1210,80 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E21" s="3">
         <v>10200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E23" s="3">
         <v>10200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>10200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1362,25 +1408,25 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E26" s="3">
         <v>10000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E27" s="3">
         <v>10000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E33" s="3">
         <v>10000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E35" s="3">
         <v>10000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,52 +2052,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E41" s="3">
         <v>80600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>140400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>63600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>109200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>70000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>124600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>126800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>31200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2092,14 +2185,17 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,19 +2238,22 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
@@ -2163,31 +2262,34 @@
         <v>600</v>
       </c>
       <c r="I45" s="3">
+        <v>600</v>
+      </c>
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,60 +2324,66 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>32100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>371200</v>
+      </c>
+      <c r="E47" s="3">
         <v>366800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>378300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>434400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>413100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>389800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>354700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>233500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>153700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>93600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>84300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>50700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2318,8 +2426,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>454000</v>
+      </c>
+      <c r="E54" s="3">
         <v>447800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>519200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>471300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>459300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>454100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>464800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>303900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>278500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>221500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>94000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,52 +2748,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,52 +2840,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E59" s="3">
         <v>20200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>81400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>93000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>28300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,40 +2926,43 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E61" s="3">
         <v>87600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>97100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>97000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>96800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>96700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>96600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2838,52 +2981,58 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>113700</v>
+      </c>
+      <c r="E66" s="3">
         <v>110000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>180100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>123900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>121100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>191800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>340300</v>
+      </c>
+      <c r="E76" s="3">
         <v>337900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>339100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>347400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>338200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>336500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>273100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>274400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>268500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>216300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>91600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>80900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E81" s="3">
         <v>10000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E89" s="3">
         <v>4400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>15000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>52200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-127000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-59800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-54800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-31800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,41 +4380,42 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-11400</v>
+        <v>-11500</v>
       </c>
       <c r="E96" s="3">
         <v>-11400</v>
       </c>
       <c r="F96" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-11100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-10900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-7100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-5100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-79100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>48000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-20200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>164300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>47500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>121700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>31900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-59800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>104100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-45600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>39300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-54600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>117200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AFCG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>AFCG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E8" s="3">
         <v>16100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>18100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E9" s="3">
         <v>3300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E10" s="3">
         <v>12800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>13100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>13600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3800</v>
       </c>
       <c r="N10" s="3">
         <v>3800</v>
       </c>
       <c r="O10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -997,11 +1017,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1017,8 +1037,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E18" s="3">
         <v>11200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>12800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>8500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,82 +1244,86 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E21" s="3">
         <v>12300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,84 +1392,90 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E23" s="3">
         <v>12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>10200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E26" s="3">
         <v>12100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E27" s="3">
         <v>12100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E33" s="3">
         <v>12100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E35" s="3">
         <v>12100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E41" s="3">
         <v>82100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>80600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>140400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>63600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>109200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>124600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>126800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>31200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2188,14 +2281,17 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,22 +2337,25 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>600</v>
       </c>
       <c r="H45" s="3">
         <v>600</v>
@@ -2265,31 +2364,34 @@
         <v>600</v>
       </c>
       <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2327,63 +2429,69 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>32100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>370400</v>
+      </c>
+      <c r="E47" s="3">
         <v>371200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>366800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>378300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>434400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>413100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>389800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>354700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>233500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>153700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>93600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>84300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>50700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>445100</v>
+      </c>
+      <c r="E54" s="3">
         <v>454000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>447800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>519200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>471300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>459300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>454100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>464800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>303900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>278500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>221500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>94000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>82700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,55 +2977,61 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E59" s="3">
         <v>24400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>81400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>25100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>93000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>28300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2929,43 +3069,46 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E61" s="3">
         <v>87700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>87600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>97100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>97000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>96800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>96700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>96600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2984,55 +3127,61 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3">
         <v>700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E66" s="3">
         <v>113700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>110000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>180100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>123900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>121100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>191800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>338800</v>
+      </c>
+      <c r="E76" s="3">
         <v>340300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>337900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>339100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>347400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>338200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>336500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>273100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>274400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>268500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>216300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>91600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>80900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E81" s="3">
         <v>12100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>5100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E94" s="3">
         <v>8000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>15000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>52200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-127000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-59800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-31800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,44 +4614,45 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-11500</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-11400</v>
       </c>
       <c r="F96" s="3">
         <v>-11400</v>
       </c>
       <c r="G96" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-11100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-10900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-7100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-5100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-79100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>48000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-20200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>164300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>47500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>121700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>31900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>104100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-45600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>39300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-54600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>117200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
